--- a/biology/Médecine/Hémochromatose_par_mutation_TFR2/Hémochromatose_par_mutation_TFR2.xlsx
+++ b/biology/Médecine/Hémochromatose_par_mutation_TFR2/Hémochromatose_par_mutation_TFR2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9mochromatose_par_mutation_TFR2</t>
+          <t>Hémochromatose_par_mutation_TFR2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L' hémochromatose par mutation TFR2 comme l'hémochromatose par mutation HFE est un trouble de l'absorption du fer avec accumulation de ce métal dans le foie, le cœur et les glandes endocrines.
 Les signes de la maladie sont des douleurs, une asthénie, des arthralgies ou une diminution de la libido, mais le plus souvent il existe seulement des signes biologiques.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9mochromatose_par_mutation_TFR2</t>
+          <t>Hémochromatose_par_mutation_TFR2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hémochromatose type 3</t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9mochromatose_par_mutation_TFR2</t>
+          <t>Hémochromatose_par_mutation_TFR2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mutation du gène TFR2 (en) situé sur le chromosome 7 codant la transferrin receptor protein 2.</t>
         </is>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9mochromatose_par_mutation_TFR2</t>
+          <t>Hémochromatose_par_mutation_TFR2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Incidence et prévalence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Beaucoup plus rare que l'hémochromatose par mutation HFE.
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9mochromatose_par_mutation_TFR2</t>
+          <t>Hémochromatose_par_mutation_TFR2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La protéine TFR2 normale est chargée de fixer la transferrine, qui permet le transport du fer libéré dans le sang par les entérocytes. La TFR2 est régulée par le taux de fer intracellulaire et par la protéine HFE. Or ce gène n'est pas fonctionnel lorsqu'il est muté et les régulations du taux intracellulaire et de HFE n'ont plus d'effet, ce qui entraîne la surcharge en fer par l'absence de possibilité de stockage par le foie et la saturation des transferrines.
 </t>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%A9mochromatose_par_mutation_TFR2</t>
+          <t>Hémochromatose_par_mutation_TFR2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +655,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les signes cliniques sont proches de celles de l'Hémochromatose de type 1.
 Elle est détectable par un taux de fer sérique augmenté, une saturation de la transferrine et une ferritinémie élevée.
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>H%C3%A9mochromatose_par_mutation_TFR2</t>
+          <t>Hémochromatose_par_mutation_TFR2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,6 +690,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -675,7 +699,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>H%C3%A9mochromatose_par_mutation_TFR2</t>
+          <t>Hémochromatose_par_mutation_TFR2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -695,8 +719,13 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode de transmission
-Transmission autosomique récessive
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission autosomique récessive
 </t>
         </is>
       </c>
